--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Serie</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2834,6 +2837,20 @@
         <v>113.76</v>
       </c>
     </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118">
+        <v>0.2</v>
+      </c>
+      <c r="D118">
+        <v>0.25</v>
+      </c>
+      <c r="F118">
+        <v>0.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
@@ -2842,13 +2842,28 @@
         <v>125</v>
       </c>
       <c r="B118">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="C118">
+        <v>2912.67</v>
       </c>
       <c r="D118">
-        <v>0.25</v>
+        <v>0.27</v>
+      </c>
+      <c r="E118">
+        <v>1454.61</v>
       </c>
       <c r="F118">
         <v>0.38</v>
+      </c>
+      <c r="G118">
+        <v>162.13</v>
+      </c>
+      <c r="H118">
+        <v>2.02</v>
+      </c>
+      <c r="I118">
+        <v>76.11</v>
       </c>
     </row>
   </sheetData>
